--- a/BY_Trans.xlsx
+++ b/BY_Trans.xlsx
@@ -1,41 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Migrating Task\Training material_migrated\DemoS_004\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcdik\Downloads\Veda2.0\Veda\Veda_models\Demo_models\DemoS_016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A775FBF0-D375-48E4-A3BB-9E3B6A91CAC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553818CD-FA13-447B-A6EF-ECC591831333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Trans Tables" sheetId="17" r:id="rId1"/>
-    <sheet name="FILL Table" sheetId="19" r:id="rId2"/>
+    <sheet name="BY_Trans" sheetId="17" r:id="rId1"/>
+    <sheet name="NCAP_BND" sheetId="20" r:id="rId2"/>
+    <sheet name="FILL Table" sheetId="19" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
     <author>Gary Goldstein</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,13 +36,13 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
-          <t>Update Table</t>
+          <t>Insert Table</t>
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="1" shapeId="0">
+    <comment ref="H5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M5" authorId="1" shapeId="0">
+    <comment ref="M5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +68,18 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Maurizio Gargiulo</author>
+    <author>Gary Goldstein</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -83,13 +87,13 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Insert Table</t>
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="1" shapeId="0">
+    <comment ref="H5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -102,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M13" authorId="1" shapeId="0">
+    <comment ref="M5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -120,14 +124,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="96">
   <si>
     <t>~TFM_INS</t>
   </si>
   <si>
-    <t>~TFM_UPD</t>
-  </si>
-  <si>
     <t>TimeSlice</t>
   </si>
   <si>
@@ -186,13 +187,241 @@
   </si>
   <si>
     <t>REG1</t>
+  </si>
+  <si>
+    <t>REG2</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>ELCRESOL00</t>
+  </si>
+  <si>
+    <t>SD1</t>
+  </si>
+  <si>
+    <t>SD2</t>
+  </si>
+  <si>
+    <t>SD3</t>
+  </si>
+  <si>
+    <t>SD4</t>
+  </si>
+  <si>
+    <t>SD5</t>
+  </si>
+  <si>
+    <t>SD6</t>
+  </si>
+  <si>
+    <t>SD7</t>
+  </si>
+  <si>
+    <t>SD8</t>
+  </si>
+  <si>
+    <t>SD9</t>
+  </si>
+  <si>
+    <t>SD10</t>
+  </si>
+  <si>
+    <t>SD11</t>
+  </si>
+  <si>
+    <t>SD12</t>
+  </si>
+  <si>
+    <t>SD13</t>
+  </si>
+  <si>
+    <t>SD14</t>
+  </si>
+  <si>
+    <t>SD15</t>
+  </si>
+  <si>
+    <t>SD16</t>
+  </si>
+  <si>
+    <t>SD17</t>
+  </si>
+  <si>
+    <t>SD18</t>
+  </si>
+  <si>
+    <t>SD19</t>
+  </si>
+  <si>
+    <t>SD20</t>
+  </si>
+  <si>
+    <t>SD21</t>
+  </si>
+  <si>
+    <t>SD22</t>
+  </si>
+  <si>
+    <t>SD23</t>
+  </si>
+  <si>
+    <t>SD24</t>
+  </si>
+  <si>
+    <t>WD1</t>
+  </si>
+  <si>
+    <t>WD2</t>
+  </si>
+  <si>
+    <t>WD3</t>
+  </si>
+  <si>
+    <t>WD4</t>
+  </si>
+  <si>
+    <t>WD5</t>
+  </si>
+  <si>
+    <t>WD6</t>
+  </si>
+  <si>
+    <t>WD7</t>
+  </si>
+  <si>
+    <t>WD8</t>
+  </si>
+  <si>
+    <t>WD9</t>
+  </si>
+  <si>
+    <t>WD10</t>
+  </si>
+  <si>
+    <t>WD11</t>
+  </si>
+  <si>
+    <t>WD12</t>
+  </si>
+  <si>
+    <t>WD13</t>
+  </si>
+  <si>
+    <t>WD14</t>
+  </si>
+  <si>
+    <t>WD15</t>
+  </si>
+  <si>
+    <t>WD16</t>
+  </si>
+  <si>
+    <t>WD17</t>
+  </si>
+  <si>
+    <t>WD18</t>
+  </si>
+  <si>
+    <t>WD19</t>
+  </si>
+  <si>
+    <t>WD20</t>
+  </si>
+  <si>
+    <t>WD21</t>
+  </si>
+  <si>
+    <t>WD22</t>
+  </si>
+  <si>
+    <t>WD23</t>
+  </si>
+  <si>
+    <t>WD24</t>
+  </si>
+  <si>
+    <t>ID1</t>
+  </si>
+  <si>
+    <t>ID2</t>
+  </si>
+  <si>
+    <t>ID3</t>
+  </si>
+  <si>
+    <t>ID4</t>
+  </si>
+  <si>
+    <t>ID5</t>
+  </si>
+  <si>
+    <t>ID6</t>
+  </si>
+  <si>
+    <t>ID7</t>
+  </si>
+  <si>
+    <t>ID8</t>
+  </si>
+  <si>
+    <t>ID9</t>
+  </si>
+  <si>
+    <t>ID10</t>
+  </si>
+  <si>
+    <t>ID11</t>
+  </si>
+  <si>
+    <t>ID12</t>
+  </si>
+  <si>
+    <t>ID13</t>
+  </si>
+  <si>
+    <t>ID14</t>
+  </si>
+  <si>
+    <t>ID15</t>
+  </si>
+  <si>
+    <t>ID16</t>
+  </si>
+  <si>
+    <t>ID17</t>
+  </si>
+  <si>
+    <t>ID18</t>
+  </si>
+  <si>
+    <t>ID19</t>
+  </si>
+  <si>
+    <t>ID20</t>
+  </si>
+  <si>
+    <t>ID21</t>
+  </si>
+  <si>
+    <t>ID22</t>
+  </si>
+  <si>
+    <t>ID23</t>
+  </si>
+  <si>
+    <t>ID24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -228,6 +457,7 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -235,17 +465,27 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -300,10 +540,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -316,13 +578,36 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="23">
+    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 4 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 8" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 9 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normale_B2020" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Percent 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Percent 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Percent 3 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Percent 3 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Percent 3 4" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Percent 4" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Percent 4 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Percent 4 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Percent 4 4" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Percent 5" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Percent 6" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Percent 7" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Percent 8" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -657,22 +942,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B3:O14"/>
+  <dimension ref="B3:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.85546875" customWidth="1"/>
@@ -686,12 +974,12 @@
   <sheetData>
     <row r="3" spans="2:15" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="1"/>
@@ -702,118 +990,1272 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="5" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="B7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2021</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>2021</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2021</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2021</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2021</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2021</v>
+      </c>
+      <c r="G12">
+        <v>1.5853074009200559E-2</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="2:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>12</v>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2021</v>
+      </c>
+      <c r="G13">
+        <v>1.5801206884450712E-2</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2021</v>
+      </c>
+      <c r="G14">
+        <v>1.5850053783418954E-2</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2021</v>
+      </c>
+      <c r="G15">
+        <v>1.6163856210990011E-2</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2021</v>
+      </c>
+      <c r="G16">
+        <v>1.6191202243121216E-2</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2021</v>
+      </c>
+      <c r="G17">
+        <v>1.6389524280109789E-2</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2021</v>
+      </c>
+      <c r="G18">
+        <v>1.6805369485413522E-2</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2021</v>
+      </c>
+      <c r="G19">
+        <v>1.6596086489343784E-2</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2021</v>
+      </c>
+      <c r="G20">
+        <v>1.6690522185666027E-2</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>2021</v>
+      </c>
+      <c r="G21">
+        <v>1.6649625204002764E-2</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2021</v>
+      </c>
+      <c r="G22">
+        <v>1.6647050654791752E-2</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2021</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2021</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>2021</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26">
+        <v>2021</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27">
+        <v>2021</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2021</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2021</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30">
+        <v>2021</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31">
+        <v>2021</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32">
+        <v>2021</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33">
+        <v>2021</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2021</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35">
+        <v>2021</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36">
+        <v>2021</v>
+      </c>
+      <c r="G36">
+        <v>9.1226451598363754E-3</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37">
+        <v>2021</v>
+      </c>
+      <c r="G37">
+        <v>1.0450446460018734E-2</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38">
+        <v>2021</v>
+      </c>
+      <c r="G38">
+        <v>1.2807966521470045E-2</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39">
+        <v>2021</v>
+      </c>
+      <c r="G39">
+        <v>1.4348723713427216E-2</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40">
+        <v>2021</v>
+      </c>
+      <c r="G40">
+        <v>1.3996978324396982E-2</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41">
+        <v>2021</v>
+      </c>
+      <c r="G41">
+        <v>1.3464758145829207E-2</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42">
+        <v>2021</v>
+      </c>
+      <c r="G42">
+        <v>1.2812471730281477E-2</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43">
+        <v>2021</v>
+      </c>
+      <c r="G43">
+        <v>1.2391646472809281E-2</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44">
+        <v>2021</v>
+      </c>
+      <c r="G44">
+        <v>1.216541717012767E-2</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45">
+        <v>2021</v>
+      </c>
+      <c r="G45">
+        <v>1.2183438005373399E-2</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46">
+        <v>2021</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47">
+        <v>2021</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48">
+        <v>2021</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49">
+        <v>2021</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50">
+        <v>2021</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51">
+        <v>2021</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52">
+        <v>2021</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53">
+        <v>2021</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54">
+        <v>2021</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55">
+        <v>2021</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56">
+        <v>2021</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57">
+        <v>2021</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58">
+        <v>2021</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59">
+        <v>2021</v>
+      </c>
+      <c r="G59">
+        <v>1.2168795723505266E-2</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60">
+        <v>2021</v>
+      </c>
+      <c r="G60">
+        <v>1.2479073814228119E-2</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61">
+        <v>2021</v>
+      </c>
+      <c r="G61">
+        <v>1.2674862478645351E-2</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62">
+        <v>2021</v>
+      </c>
+      <c r="G62">
+        <v>1.3379225232604798E-2</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63">
+        <v>2021</v>
+      </c>
+      <c r="G63">
+        <v>1.3713404142349629E-2</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64">
+        <v>2021</v>
+      </c>
+      <c r="G64">
+        <v>1.3585465900726046E-2</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65">
+        <v>2021</v>
+      </c>
+      <c r="G65">
+        <v>1.37045693309842E-2</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66">
+        <v>2021</v>
+      </c>
+      <c r="G66">
+        <v>1.3168597839434321E-2</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67">
+        <v>2021</v>
+      </c>
+      <c r="G67">
+        <v>1.3020794896861939E-2</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68">
+        <v>2021</v>
+      </c>
+      <c r="G68">
+        <v>1.3083770934010997E-2</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69">
+        <v>2021</v>
+      </c>
+      <c r="G69">
+        <v>1.3062991869445904E-2</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70">
+        <v>2021</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71">
+        <v>2021</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72">
+        <v>2021</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73">
+        <v>2021</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74">
+        <v>2021</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75">
+        <v>2021</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76">
+        <v>2021</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77">
+        <v>2021</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>95</v>
+      </c>
+      <c r="D78" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78">
+        <v>2021</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -826,10 +2268,98 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B3:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="I7" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -843,52 +2373,55 @@
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="I3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="10" t="s">
+      <c r="N3" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/BY_Trans.xlsx
+++ b/BY_Trans.xlsx
@@ -5,19 +5,19 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcdik\Downloads\Veda2.0\Veda\Veda_models\Demo_models\DemoS_016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcdik\Downloads\Veda2.0\Veda\Veda_models\Demo_models\DemoS_017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553818CD-FA13-447B-A6EF-ECC591831333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E57483-B41A-42AC-9393-6E9726A0F754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY_Trans" sheetId="17" r:id="rId1"/>
     <sheet name="NCAP_BND" sheetId="20" r:id="rId2"/>
     <sheet name="FILL Table" sheetId="19" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -418,8 +418,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -582,7 +583,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -946,8 +947,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L73" sqref="L72:L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1112,7 +1113,7 @@
       <c r="E11">
         <v>2021</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="12">
         <v>0</v>
       </c>
       <c r="I11" s="11" t="s">
@@ -1129,8 +1130,8 @@
       <c r="E12">
         <v>2021</v>
       </c>
-      <c r="G12">
-        <v>1.5853074009200559E-2</v>
+      <c r="G12" s="12">
+        <v>0</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>23</v>
@@ -1146,8 +1147,8 @@
       <c r="E13">
         <v>2021</v>
       </c>
-      <c r="G13">
-        <v>1.5801206884450712E-2</v>
+      <c r="G13" s="12">
+        <v>0</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>23</v>
@@ -1163,8 +1164,8 @@
       <c r="E14">
         <v>2021</v>
       </c>
-      <c r="G14">
-        <v>1.5850053783418954E-2</v>
+      <c r="G14" s="12">
+        <v>2.8306731815907257E-5</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>23</v>
@@ -1180,8 +1181,8 @@
       <c r="E15">
         <v>2021</v>
       </c>
-      <c r="G15">
-        <v>1.6163856210990011E-2</v>
+      <c r="G15" s="12">
+        <v>6.5495030676883295E-4</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>23</v>
@@ -1197,8 +1198,8 @@
       <c r="E16">
         <v>2021</v>
       </c>
-      <c r="G16">
-        <v>1.6191202243121216E-2</v>
+      <c r="G16" s="12">
+        <v>2.0788411929034516E-3</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>23</v>
@@ -1214,8 +1215,8 @@
       <c r="E17">
         <v>2021</v>
       </c>
-      <c r="G17">
-        <v>1.6389524280109789E-2</v>
+      <c r="G17" s="12">
+        <v>3.6931138204348785E-3</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>23</v>
@@ -1231,8 +1232,8 @@
       <c r="E18">
         <v>2021</v>
       </c>
-      <c r="G18">
-        <v>1.6805369485413522E-2</v>
+      <c r="G18" s="12">
+        <v>5.0904314296472807E-3</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>23</v>
@@ -1248,8 +1249,8 @@
       <c r="E19">
         <v>2021</v>
       </c>
-      <c r="G19">
-        <v>1.6596086489343784E-2</v>
+      <c r="G19" s="12">
+        <v>5.9548650442555907E-3</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>23</v>
@@ -1265,8 +1266,8 @@
       <c r="E20">
         <v>2021</v>
       </c>
-      <c r="G20">
-        <v>1.6690522185666027E-2</v>
+      <c r="G20" s="12">
+        <v>6.0480956517574369E-3</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>23</v>
@@ -1282,8 +1283,8 @@
       <c r="E21">
         <v>2021</v>
       </c>
-      <c r="G21">
-        <v>1.6649625204002764E-2</v>
+      <c r="G21" s="12">
+        <v>5.3793387608565314E-3</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>23</v>
@@ -1299,8 +1300,8 @@
       <c r="E22">
         <v>2021</v>
       </c>
-      <c r="G22">
-        <v>1.6647050654791752E-2</v>
+      <c r="G22" s="12">
+        <v>4.1876086881101398E-3</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>23</v>
@@ -1316,8 +1317,8 @@
       <c r="E23">
         <v>2021</v>
       </c>
-      <c r="G23">
-        <v>0</v>
+      <c r="G23" s="12">
+        <v>2.6910811749874348E-3</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>23</v>
@@ -1333,8 +1334,8 @@
       <c r="E24">
         <v>2021</v>
       </c>
-      <c r="G24">
-        <v>0</v>
+      <c r="G24" s="12">
+        <v>1.1992498329669548E-3</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>23</v>
@@ -1350,8 +1351,8 @@
       <c r="E25">
         <v>2021</v>
       </c>
-      <c r="G25">
-        <v>0</v>
+      <c r="G25" s="12">
+        <v>1.832461042880924E-4</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>23</v>
@@ -1367,7 +1368,7 @@
       <c r="E26">
         <v>2021</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="12">
         <v>0</v>
       </c>
       <c r="I26" s="11" t="s">
@@ -1384,7 +1385,7 @@
       <c r="E27">
         <v>2021</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="12">
         <v>0</v>
       </c>
       <c r="I27" s="11" t="s">
@@ -1401,7 +1402,7 @@
       <c r="E28">
         <v>2021</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="12">
         <v>0</v>
       </c>
       <c r="I28" s="11" t="s">
@@ -1418,7 +1419,7 @@
       <c r="E29">
         <v>2021</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="12">
         <v>0</v>
       </c>
       <c r="I29" s="11" t="s">
@@ -1435,7 +1436,7 @@
       <c r="E30">
         <v>2021</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="12">
         <v>0</v>
       </c>
       <c r="I30" s="11" t="s">
@@ -1452,7 +1453,7 @@
       <c r="E31">
         <v>2021</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="12">
         <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
@@ -1469,7 +1470,7 @@
       <c r="E32">
         <v>2021</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="12">
         <v>0</v>
       </c>
       <c r="I32" s="11" t="s">
@@ -1486,7 +1487,7 @@
       <c r="E33">
         <v>2021</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="12">
         <v>0</v>
       </c>
       <c r="I33" s="11" t="s">
@@ -1503,7 +1504,7 @@
       <c r="E34">
         <v>2021</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="12">
         <v>0</v>
       </c>
       <c r="I34" s="11" t="s">
@@ -1520,7 +1521,7 @@
       <c r="E35">
         <v>2021</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="12">
         <v>0</v>
       </c>
       <c r="I35" s="11" t="s">
@@ -1537,8 +1538,8 @@
       <c r="E36">
         <v>2021</v>
       </c>
-      <c r="G36">
-        <v>9.1226451598363754E-3</v>
+      <c r="G36" s="12">
+        <v>0</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>23</v>
@@ -1554,8 +1555,8 @@
       <c r="E37">
         <v>2021</v>
       </c>
-      <c r="G37">
-        <v>1.0450446460018734E-2</v>
+      <c r="G37" s="12">
+        <v>2.0790218199465992E-5</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>23</v>
@@ -1571,8 +1572,8 @@
       <c r="E38">
         <v>2021</v>
       </c>
-      <c r="G38">
-        <v>1.2807966521470045E-2</v>
+      <c r="G38" s="12">
+        <v>5.0354664451999207E-4</v>
       </c>
       <c r="I38" s="11" t="s">
         <v>23</v>
@@ -1588,8 +1589,8 @@
       <c r="E39">
         <v>2021</v>
       </c>
-      <c r="G39">
-        <v>1.4348723713427216E-2</v>
+      <c r="G39" s="12">
+        <v>1.8872397376327676E-3</v>
       </c>
       <c r="I39" s="11" t="s">
         <v>23</v>
@@ -1605,8 +1606,8 @@
       <c r="E40">
         <v>2021</v>
       </c>
-      <c r="G40">
-        <v>1.3996978324396982E-2</v>
+      <c r="G40" s="12">
+        <v>3.6649224439211079E-3</v>
       </c>
       <c r="I40" s="11" t="s">
         <v>23</v>
@@ -1622,8 +1623,8 @@
       <c r="E41">
         <v>2021</v>
       </c>
-      <c r="G41">
-        <v>1.3464758145829207E-2</v>
+      <c r="G41" s="12">
+        <v>5.403851220561722E-3</v>
       </c>
       <c r="I41" s="11" t="s">
         <v>23</v>
@@ -1639,8 +1640,8 @@
       <c r="E42">
         <v>2021</v>
       </c>
-      <c r="G42">
-        <v>1.2812471730281477E-2</v>
+      <c r="G42" s="12">
+        <v>6.6264141714191685E-3</v>
       </c>
       <c r="I42" s="11" t="s">
         <v>23</v>
@@ -1656,8 +1657,8 @@
       <c r="E43">
         <v>2021</v>
       </c>
-      <c r="G43">
-        <v>1.2391646472809281E-2</v>
+      <c r="G43" s="12">
+        <v>7.2619763418577286E-3</v>
       </c>
       <c r="I43" s="11" t="s">
         <v>23</v>
@@ -1673,8 +1674,8 @@
       <c r="E44">
         <v>2021</v>
       </c>
-      <c r="G44">
-        <v>1.216541717012767E-2</v>
+      <c r="G44" s="12">
+        <v>6.9409407068674999E-3</v>
       </c>
       <c r="I44" s="11" t="s">
         <v>23</v>
@@ -1690,8 +1691,8 @@
       <c r="E45">
         <v>2021</v>
       </c>
-      <c r="G45">
-        <v>1.2183438005373399E-2</v>
+      <c r="G45" s="12">
+        <v>6.1619834098879615E-3</v>
       </c>
       <c r="I45" s="11" t="s">
         <v>23</v>
@@ -1707,8 +1708,8 @@
       <c r="E46">
         <v>2021</v>
       </c>
-      <c r="G46">
-        <v>0</v>
+      <c r="G46" s="12">
+        <v>5.0988124261979739E-3</v>
       </c>
       <c r="I46" s="11" t="s">
         <v>23</v>
@@ -1724,8 +1725,8 @@
       <c r="E47">
         <v>2021</v>
       </c>
-      <c r="G47">
-        <v>0</v>
+      <c r="G47" s="12">
+        <v>3.3929878707726186E-3</v>
       </c>
       <c r="I47" s="11" t="s">
         <v>23</v>
@@ -1741,8 +1742,8 @@
       <c r="E48">
         <v>2021</v>
       </c>
-      <c r="G48">
-        <v>0</v>
+      <c r="G48" s="12">
+        <v>1.6994880331445633E-3</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>23</v>
@@ -1758,8 +1759,8 @@
       <c r="E49">
         <v>2021</v>
       </c>
-      <c r="G49">
-        <v>0</v>
+      <c r="G49" s="12">
+        <v>5.0199230580855929E-4</v>
       </c>
       <c r="I49" s="11" t="s">
         <v>23</v>
@@ -1775,8 +1776,8 @@
       <c r="E50">
         <v>2021</v>
       </c>
-      <c r="G50">
-        <v>0</v>
+      <c r="G50" s="12">
+        <v>2.2635345767296332E-5</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>23</v>
@@ -1792,7 +1793,7 @@
       <c r="E51">
         <v>2021</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="12">
         <v>0</v>
       </c>
       <c r="I51" s="11" t="s">
@@ -1809,7 +1810,7 @@
       <c r="E52">
         <v>2021</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="12">
         <v>0</v>
       </c>
       <c r="I52" s="11" t="s">
@@ -1826,7 +1827,7 @@
       <c r="E53">
         <v>2021</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="12">
         <v>0</v>
       </c>
       <c r="I53" s="11" t="s">
@@ -1843,7 +1844,7 @@
       <c r="E54">
         <v>2021</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="12">
         <v>0</v>
       </c>
       <c r="I54" s="11" t="s">
@@ -1860,7 +1861,7 @@
       <c r="E55">
         <v>2021</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="12">
         <v>0</v>
       </c>
       <c r="I55" s="11" t="s">
@@ -1877,7 +1878,7 @@
       <c r="E56">
         <v>2021</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="12">
         <v>0</v>
       </c>
       <c r="I56" s="11" t="s">
@@ -1894,7 +1895,7 @@
       <c r="E57">
         <v>2021</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="12">
         <v>0</v>
       </c>
       <c r="I57" s="11" t="s">
@@ -1911,7 +1912,7 @@
       <c r="E58">
         <v>2021</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="12">
         <v>0</v>
       </c>
       <c r="I58" s="11" t="s">
@@ -1928,8 +1929,8 @@
       <c r="E59">
         <v>2021</v>
       </c>
-      <c r="G59">
-        <v>1.2168795723505266E-2</v>
+      <c r="G59" s="12">
+        <v>0</v>
       </c>
       <c r="I59" s="11" t="s">
         <v>23</v>
@@ -1945,8 +1946,8 @@
       <c r="E60">
         <v>2021</v>
       </c>
-      <c r="G60">
-        <v>1.2479073814228119E-2</v>
+      <c r="G60" s="12">
+        <v>0</v>
       </c>
       <c r="I60" s="11" t="s">
         <v>23</v>
@@ -1962,8 +1963,8 @@
       <c r="E61">
         <v>2021</v>
       </c>
-      <c r="G61">
-        <v>1.2674862478645351E-2</v>
+      <c r="G61" s="12">
+        <v>2.0790218199465992E-5</v>
       </c>
       <c r="I61" s="11" t="s">
         <v>23</v>
@@ -1979,8 +1980,8 @@
       <c r="E62">
         <v>2021</v>
       </c>
-      <c r="G62">
-        <v>1.3379225232604798E-2</v>
+      <c r="G62" s="12">
+        <v>5.0354664451999207E-4</v>
       </c>
       <c r="I62" s="11" t="s">
         <v>23</v>
@@ -1996,8 +1997,8 @@
       <c r="E63">
         <v>2021</v>
       </c>
-      <c r="G63">
-        <v>1.3713404142349629E-2</v>
+      <c r="G63" s="12">
+        <v>1.8872397376327676E-3</v>
       </c>
       <c r="I63" s="11" t="s">
         <v>23</v>
@@ -2013,8 +2014,8 @@
       <c r="E64">
         <v>2021</v>
       </c>
-      <c r="G64">
-        <v>1.3585465900726046E-2</v>
+      <c r="G64" s="12">
+        <v>3.6649224439211079E-3</v>
       </c>
       <c r="I64" s="11" t="s">
         <v>23</v>
@@ -2030,8 +2031,8 @@
       <c r="E65">
         <v>2021</v>
       </c>
-      <c r="G65">
-        <v>1.37045693309842E-2</v>
+      <c r="G65" s="12">
+        <v>5.403851220561722E-3</v>
       </c>
       <c r="I65" s="11" t="s">
         <v>23</v>
@@ -2047,8 +2048,8 @@
       <c r="E66">
         <v>2021</v>
       </c>
-      <c r="G66">
-        <v>1.3168597839434321E-2</v>
+      <c r="G66" s="12">
+        <v>6.6264141714191685E-3</v>
       </c>
       <c r="I66" s="11" t="s">
         <v>23</v>
@@ -2064,8 +2065,8 @@
       <c r="E67">
         <v>2021</v>
       </c>
-      <c r="G67">
-        <v>1.3020794896861939E-2</v>
+      <c r="G67" s="12">
+        <v>7.2619763418577286E-3</v>
       </c>
       <c r="I67" s="11" t="s">
         <v>23</v>
@@ -2081,8 +2082,8 @@
       <c r="E68">
         <v>2021</v>
       </c>
-      <c r="G68">
-        <v>1.3083770934010997E-2</v>
+      <c r="G68" s="12">
+        <v>6.9409407068674999E-3</v>
       </c>
       <c r="I68" s="11" t="s">
         <v>23</v>
@@ -2098,8 +2099,8 @@
       <c r="E69">
         <v>2021</v>
       </c>
-      <c r="G69">
-        <v>1.3062991869445904E-2</v>
+      <c r="G69" s="12">
+        <v>6.1619834098879615E-3</v>
       </c>
       <c r="I69" s="11" t="s">
         <v>23</v>
@@ -2115,8 +2116,8 @@
       <c r="E70">
         <v>2021</v>
       </c>
-      <c r="G70">
-        <v>0</v>
+      <c r="G70" s="12">
+        <v>5.0988124261979739E-3</v>
       </c>
       <c r="I70" s="11" t="s">
         <v>23</v>
@@ -2132,8 +2133,8 @@
       <c r="E71">
         <v>2021</v>
       </c>
-      <c r="G71">
-        <v>0</v>
+      <c r="G71" s="12">
+        <v>3.3929878707726186E-3</v>
       </c>
       <c r="I71" s="11" t="s">
         <v>23</v>
@@ -2149,8 +2150,8 @@
       <c r="E72">
         <v>2021</v>
       </c>
-      <c r="G72">
-        <v>0</v>
+      <c r="G72" s="12">
+        <v>1.6994880331445633E-3</v>
       </c>
       <c r="I72" s="11" t="s">
         <v>23</v>
@@ -2166,8 +2167,8 @@
       <c r="E73">
         <v>2021</v>
       </c>
-      <c r="G73">
-        <v>0</v>
+      <c r="G73" s="12">
+        <v>5.0199230580855929E-4</v>
       </c>
       <c r="I73" s="11" t="s">
         <v>23</v>
@@ -2183,8 +2184,8 @@
       <c r="E74">
         <v>2021</v>
       </c>
-      <c r="G74">
-        <v>0</v>
+      <c r="G74" s="12">
+        <v>2.2635345767296332E-5</v>
       </c>
       <c r="I74" s="11" t="s">
         <v>23</v>
@@ -2200,7 +2201,7 @@
       <c r="E75">
         <v>2021</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="12">
         <v>0</v>
       </c>
       <c r="I75" s="11" t="s">
@@ -2217,7 +2218,7 @@
       <c r="E76">
         <v>2021</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="12">
         <v>0</v>
       </c>
       <c r="I76" s="11" t="s">
@@ -2234,7 +2235,7 @@
       <c r="E77">
         <v>2021</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="12">
         <v>0</v>
       </c>
       <c r="I77" s="11" t="s">
@@ -2251,7 +2252,7 @@
       <c r="E78">
         <v>2021</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="12">
         <v>0</v>
       </c>
       <c r="I78" s="11" t="s">
